--- a/biology/Zoologie/Daphnis_placida/Daphnis_placida.xlsx
+++ b/biology/Zoologie/Daphnis_placida/Daphnis_placida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daphnis placida est une espèce de lépidoptères (papillons) appartenant à la famille des Sphingidae, à la sous-famille des Macroglossinae, à la tribu des Macroglossini et au genre Daphnis .  
 </t>
@@ -511,15 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure est d'environ 60 mm. Les adultes ont un motif complexe de brun clair et foncé sur les ailes et une barre blanche sur le premier segment abdominal. La marge externe de l’aile antérieure est plus manifestement creusée sous l’apex que chez les autres espèces de Daphnis.
 			Avers du mâle(coll.MHNT)
 			Revers du mâle(coll.MHNT)
 			Avers de la femelle(coll.MHNT)
 			Revers de la femelle(coll.MHNT)
-Chenille
-La chenille est verte avec une bande pâle sur chaque côté du dos. Il y a des marques jaunes de chaque côté du thorax. La chenille présente une épine de queue rougeâtre en forme de «S».
 </t>
         </is>
       </c>
@@ -545,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les chenilles se nourrissent d’Alstonia constricta, Neisosperma kilneri et Tabernaemontana angustisepala[1].
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est verte avec une bande pâle sur chaque côté du dos. Il y a des marques jaunes de chaque côté du thorax. La chenille présente une épine de queue rougeâtre en forme de «S».
 </t>
         </is>
       </c>
@@ -576,13 +594,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Répartinion
-L'espèce est connue en Thaïlande, en Malaisie, en Indonésie (y compris Bornéo), dans les îles Salomon et dans la moitié nord de l'Australie.</t>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles se nourrissent d’Alstonia constricta, Neisosperma kilneri et Tabernaemontana angustisepala.
+</t>
         </is>
       </c>
     </row>
@@ -607,48 +627,120 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Répartinion
+L'espèce est connue en Thaïlande, en Malaisie, en Indonésie (y compris Bornéo), dans les îles Salomon et dans la moitié nord de l'Australie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Daphnis_placida</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daphnis_placida</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par l'entomologiste britannique Francis Walker en 1856 sous le nom initial de Darapsa placida[2].
-Synonymie
-Darapsa placida Walker, 1856 Protonyme
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par l'entomologiste britannique Francis Walker en 1856 sous le nom initial de Darapsa placida.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Daphnis_placida</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daphnis_placida</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Darapsa placida Walker, 1856 Protonyme
 Choerocampa hesperus Boisduval, 1875
 Daphnis andamana Druce, 1882
 Daphnis angustans R. Felder, 1874
 Daphnis horsfieldii Butler, 1876
 Deilephila jamdenae Debauche, 1934
-Daphnis torenia rosacea Rothschild, 1894[3]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+Daphnis torenia rosacea Rothschild, 1894</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Daphnis_placida</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Daphnis_placida</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Darapsa placida placida (Walker,1856)
 Darapsa placida salomonis Rothschild &amp; Jordan, 1906 (îles Salomon)</t>
